--- a/data/trans_orig/P34C2_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P34C2_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B89C4B9B-0241-42ED-839A-6EBF3F605FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9FE8099-DA0A-4B9C-908D-460C605D1539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{715D5A49-7407-4194-9BF2-508E2D511ED0}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1528C37D-4304-451C-801B-CB862BF64C5F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="314">
   <si>
     <t>Población según el número de veces al día que realizan alguna actividad física moderada con una duración de al menos 10 minutos en 2023 (Tasa respuesta: 41,39%)</t>
   </si>
@@ -74,7 +74,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>9,03%</t>
+    <t>7,61%</t>
   </si>
   <si>
     <t>2,39%</t>
@@ -83,880 +83,898 @@
     <t>0,71%</t>
   </si>
   <si>
-    <t>6,59%</t>
+    <t>6,3%</t>
   </si>
   <si>
     <t>2,46%</t>
   </si>
   <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
   </si>
   <si>
     <t>3,73%</t>
   </si>
   <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>63,64%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>67,72%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
     <t>1,09%</t>
   </si>
   <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>67,13%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>70,44%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
   </si>
   <si>
     <t>3,13%</t>
   </si>
   <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>65,09%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>65,45%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
   </si>
   <si>
     <t>3,96%</t>
   </si>
   <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
   </si>
   <si>
     <t>6,89%</t>
   </si>
   <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>70,15%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>64,98%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
-  </si>
-  <si>
-    <t>63,87%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
   </si>
   <si>
     <t>71,59%</t>
   </si>
   <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>70,58%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
+    <t>69,23%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
   </si>
   <si>
     <t>72,49%</t>
   </si>
   <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1371,7 +1389,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D108724-4F3B-475A-BBBC-00DA266FC5C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{677C42BA-361B-4EB9-8D82-FFA2ADCC73CB}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2165,7 +2183,7 @@
         <v>110</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>111</v>
@@ -2180,10 +2198,10 @@
         <v>112</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M17" s="7">
         <v>35</v>
@@ -2192,10 +2210,10 @@
         <v>22054</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>116</v>
@@ -2228,13 +2246,13 @@
         <v>13969</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M18" s="7">
         <v>39</v>
@@ -2243,13 +2261,13 @@
         <v>31157</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2264,13 +2282,13 @@
         <v>28861</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>63</v>
@@ -2279,13 +2297,13 @@
         <v>42620</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>90</v>
@@ -2294,13 +2312,13 @@
         <v>71481</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2315,13 +2333,13 @@
         <v>205179</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>281</v>
@@ -2330,13 +2348,13 @@
         <v>190253</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M20" s="7">
         <v>483</v>
@@ -2345,13 +2363,13 @@
         <v>395432</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2407,7 +2425,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B22" s="5">
         <v>5</v>
@@ -2419,13 +2437,13 @@
         <v>13197</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="H22" s="7">
         <v>23</v>
@@ -2434,13 +2452,13 @@
         <v>10500</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="M22" s="7">
         <v>41</v>
@@ -2449,13 +2467,13 @@
         <v>23697</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2470,13 +2488,13 @@
         <v>11964</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H23" s="7">
         <v>23</v>
@@ -2485,13 +2503,13 @@
         <v>10753</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M23" s="7">
         <v>37</v>
@@ -2500,13 +2518,13 @@
         <v>22717</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>118</v>
+        <v>160</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2521,13 +2539,13 @@
         <v>16534</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H24" s="7">
         <v>36</v>
@@ -2536,13 +2554,13 @@
         <v>20087</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="M24" s="7">
         <v>57</v>
@@ -2551,13 +2569,13 @@
         <v>36621</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2572,13 +2590,13 @@
         <v>47450</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H25" s="7">
         <v>88</v>
@@ -2587,13 +2605,13 @@
         <v>57071</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="M25" s="7">
         <v>133</v>
@@ -2602,13 +2620,13 @@
         <v>104521</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2623,13 +2641,13 @@
         <v>218977</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H26" s="7">
         <v>389</v>
@@ -2638,13 +2656,13 @@
         <v>248243</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="M26" s="7">
         <v>610</v>
@@ -2653,13 +2671,13 @@
         <v>467221</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>184</v>
+        <v>99</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2715,7 +2733,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B28" s="5">
         <v>5</v>
@@ -2727,13 +2745,13 @@
         <v>6037</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>20</v>
+        <v>191</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="H28" s="7">
         <v>15</v>
@@ -2742,13 +2760,13 @@
         <v>6283</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>191</v>
+        <v>109</v>
       </c>
       <c r="M28" s="7">
         <v>23</v>
@@ -2757,13 +2775,13 @@
         <v>12320</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2778,13 +2796,13 @@
         <v>10697</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="H29" s="7">
         <v>31</v>
@@ -2793,13 +2811,13 @@
         <v>12760</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>199</v>
+        <v>19</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M29" s="7">
         <v>46</v>
@@ -2808,13 +2826,13 @@
         <v>23457</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2829,13 +2847,13 @@
         <v>11094</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>204</v>
+        <v>70</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H30" s="7">
         <v>21</v>
@@ -2844,13 +2862,13 @@
         <v>11006</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M30" s="7">
         <v>37</v>
@@ -2859,13 +2877,13 @@
         <v>22100</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2880,13 +2898,13 @@
         <v>34778</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H31" s="7">
         <v>56</v>
@@ -2895,13 +2913,13 @@
         <v>33425</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M31" s="7">
         <v>94</v>
@@ -2910,13 +2928,13 @@
         <v>68203</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2931,13 +2949,13 @@
         <v>185351</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H32" s="7">
         <v>290</v>
@@ -2946,13 +2964,13 @@
         <v>172808</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M32" s="7">
         <v>498</v>
@@ -2961,13 +2979,13 @@
         <v>358159</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3023,7 +3041,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B34" s="5">
         <v>5</v>
@@ -3035,13 +3053,13 @@
         <v>7013</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>28</v>
+        <v>232</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>232</v>
+        <v>163</v>
       </c>
       <c r="H34" s="7">
         <v>18</v>
@@ -3053,10 +3071,10 @@
         <v>59</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>109</v>
+        <v>235</v>
       </c>
       <c r="M34" s="7">
         <v>30</v>
@@ -3065,13 +3083,13 @@
         <v>14725</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>68</v>
+        <v>237</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>191</v>
+        <v>238</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3086,13 +3104,13 @@
         <v>12293</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>236</v>
+        <v>151</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H35" s="7">
         <v>32</v>
@@ -3101,13 +3119,13 @@
         <v>13254</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>238</v>
+        <v>192</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>197</v>
+        <v>242</v>
       </c>
       <c r="M35" s="7">
         <v>52</v>
@@ -3116,13 +3134,13 @@
         <v>25547</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3137,13 +3155,13 @@
         <v>11852</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="H36" s="7">
         <v>50</v>
@@ -3152,13 +3170,13 @@
         <v>22685</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="M36" s="7">
         <v>69</v>
@@ -3167,13 +3185,13 @@
         <v>34537</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3188,13 +3206,13 @@
         <v>37804</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="H37" s="7">
         <v>84</v>
@@ -3203,13 +3221,13 @@
         <v>42379</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="M37" s="7">
         <v>136</v>
@@ -3218,13 +3236,13 @@
         <v>80183</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>258</v>
+        <v>134</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3239,13 +3257,13 @@
         <v>154967</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H38" s="7">
         <v>326</v>
@@ -3254,13 +3272,13 @@
         <v>180168</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M38" s="7">
         <v>545</v>
@@ -3269,13 +3287,13 @@
         <v>335136</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3343,13 +3361,13 @@
         <v>46781</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>123</v>
+        <v>274</v>
       </c>
       <c r="H40" s="7">
         <v>78</v>
@@ -3358,13 +3376,13 @@
         <v>40141</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>205</v>
+        <v>275</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>272</v>
+        <v>155</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>118</v>
+        <v>241</v>
       </c>
       <c r="M40" s="7">
         <v>136</v>
@@ -3373,13 +3391,13 @@
         <v>86921</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3394,13 +3412,13 @@
         <v>59458</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>106</v>
+        <v>279</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="H41" s="7">
         <v>115</v>
@@ -3409,13 +3427,13 @@
         <v>54632</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>280</v>
+        <v>210</v>
       </c>
       <c r="M41" s="7">
         <v>187</v>
@@ -3424,13 +3442,13 @@
         <v>114090</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>204</v>
+        <v>286</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3445,13 +3463,13 @@
         <v>89770</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="H42" s="7">
         <v>151</v>
@@ -3460,13 +3478,13 @@
         <v>88184</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>287</v>
+        <v>192</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="M42" s="7">
         <v>238</v>
@@ -3475,13 +3493,13 @@
         <v>177955</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3496,13 +3514,13 @@
         <v>203814</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>169</v>
+        <v>296</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="H43" s="7">
         <v>334</v>
@@ -3511,13 +3529,13 @@
         <v>238031</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>217</v>
+        <v>300</v>
       </c>
       <c r="M43" s="7">
         <v>526</v>
@@ -3526,13 +3544,13 @@
         <v>441845</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3547,13 +3565,13 @@
         <v>1102530</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="H44" s="7">
         <v>1491</v>
@@ -3562,13 +3580,13 @@
         <v>1060604</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="M44" s="7">
         <v>2532</v>
@@ -3577,13 +3595,13 @@
         <v>2163135</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3639,7 +3657,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P34C2_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P34C2_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9FE8099-DA0A-4B9C-908D-460C605D1539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA97D727-A77B-4448-A6EF-B15B447C08A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1528C37D-4304-451C-801B-CB862BF64C5F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1B1483CC-0CC9-4657-8B89-0E872E366AA4}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1389,7 +1389,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{677C42BA-361B-4EB9-8D82-FFA2ADCC73CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D4A36D8-5015-43BF-A416-FA86BFC2A78E}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
